--- a/data/工作量.xlsx
+++ b/data/工作量.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="岗位" sheetId="1" r:id="rId1"/>
@@ -3434,8 +3434,8 @@
   </sheetPr>
   <dimension ref="A1:XFA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5216,7 +5216,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6622,8 +6622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
